--- a/SubRES_TMPL/SubRes_ELC_ImportExport.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_ImportExport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Denmark\SUP\Subres_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Olexandr\ResLab\Modelling\TIMES\TIMES-Shire\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15108" yWindow="5760" windowWidth="5136" windowHeight="1896" tabRatio="596" activeTab="1"/>
+    <workbookView xWindow="15105" yWindow="5760" windowWidth="5138" windowHeight="1898" tabRatio="596" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="VARWSTBO">'[2]O&amp;M waste '!$D$5</definedName>
     <definedName name="VARWSTBP">'[2]O&amp;M waste '!$D$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Availability, fraction</t>
   </si>
   <si>
-    <t>AFA~DKW</t>
-  </si>
-  <si>
-    <t>AFA~DKE</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -190,11 +184,14 @@
   <si>
     <t>Export of elctricity to Gondor</t>
   </si>
+  <si>
+    <t>AFA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
@@ -7197,69 +7194,69 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="25"/>
+    <col min="1" max="1" width="9.1328125" style="25"/>
     <col min="2" max="2" width="24" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.44140625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="25"/>
+    <col min="3" max="3" width="138.46484375" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="26"/>
     </row>
-    <row r="7" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="26"/>
     </row>
-    <row r="8" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="26"/>
     </row>
-    <row r="9" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="10" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="26"/>
     </row>
-    <row r="11" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="26"/>
     </row>
-    <row r="13" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7284,27 +7281,27 @@
   <dimension ref="B4:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7313,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="21.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -7368,15 +7365,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
@@ -7388,13 +7385,13 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>17</v>
@@ -7406,15 +7403,15 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>17</v>
@@ -7426,13 +7423,13 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>17</v>
@@ -7444,22 +7441,22 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7471,7 +7468,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>2</v>
       </c>
@@ -7491,13 +7488,13 @@
         <v>26</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="23.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
@@ -7523,7 +7520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="str">
         <f t="shared" ref="B17:C20" si="0">C7</f>
         <v>IMPELC-RO</v>
@@ -7547,7 +7544,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IMPELC-GO</v>
@@ -7569,7 +7566,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="30" t="str">
         <f t="shared" si="0"/>
         <v>EXPELC-RO</v>
@@ -7595,7 +7592,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="str">
         <f t="shared" si="0"/>
         <v>EXPELC-GO</v>
@@ -7627,6 +7624,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100028FD4181988DA42A7F39A8E55AED015" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="800875004252cf03a3c313b269c629db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -7740,29 +7752,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E221B12B-01B2-4104-BF10-92FBB7CB68DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F014D89-28F3-4ACF-A506-1C839F249CC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FCEE5F-2D63-4A76-85AB-8D5577D15727}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FCEE5F-2D63-4A76-85AB-8D5577D15727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F014D89-28F3-4ACF-A506-1C839F249CC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E221B12B-01B2-4104-BF10-92FBB7CB68DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>